--- a/files/IOT/Component for IOT.xlsx
+++ b/files/IOT/Component for IOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Introduction_to_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE72A17-DAD1-4656-B5DC-D900F07A70AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63BA14-2F95-4770-A53D-9C3B015C07CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B1F76CF3-25BC-49B5-A77B-279FB4A981E5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Components to buy</t>
   </si>
@@ -266,6 +266,24 @@
   <si>
     <t>Choose on your own or 
 you can buy it in Cambodia</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?from=cart&amp;id=591819151590&amp;mi_id=00001DueGpskHBD4gyfe0ITxbtetOlyg4j5XGV2cUvi9lsk&amp;skuId=4535846336810&amp;spm=a1z0d.6639537%2F202410.item.d591819151590.60ba7484QDN1Bu&amp;upStreamPrice=2840</t>
+  </si>
+  <si>
+    <t>The second one</t>
+  </si>
+  <si>
+    <t>ESP32 Camera</t>
+  </si>
+  <si>
+    <t>USB-to-TTL</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?from=cart&amp;id=40531591629&amp;mi_id=0000GCuNBhrkRonlJBjFWxW4K_GwWYIfS2VFz1QIyt6HigY&amp;skuId=5866919096238&amp;spm=a1z0d.6639537%2F202410.item.d40531591629.29e47484BrHWHF&amp;upStreamPrice=375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second one </t>
   </si>
 </sst>
 </file>
@@ -274,7 +292,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$¥-804]#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -332,7 +350,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,7 +359,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +371,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -670,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6055DC-E25D-4A62-B79F-E1D9A70FC214}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -687,12 +708,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:8">
@@ -760,7 +781,7 @@
         <v>3.05</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E26" si="0">D4/7</f>
+        <f t="shared" ref="E4:E28" si="0">D4/7</f>
         <v>0.43571428571428567</v>
       </c>
       <c r="F4">
@@ -1322,19 +1343,69 @@
       </c>
     </row>
     <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27" s="9">
-        <f>SUM(G3:G26)</f>
-        <v>16.607142857142858</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="32" customHeight="1">
+        <f>E27*F27</f>
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <f>E28*F28</f>
+        <v>4.0571428571428569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" customHeight="1">
+      <c r="G29" s="9">
+        <f>SUM(G3:G28)</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1347,7 +1418,7 @@
     <hyperlink ref="B4" r:id="rId2" display="https://item.taobao.com/item.htm?abbucket=10&amp;id=544098298735&amp;mi_id=0000mvu0Lik7W-dRAcws66kq0G75wedBYy02pI0aNGLkVrM&amp;ns=1&amp;priceTId=2100c80617681086987022270e0915&amp;skuId=5036178078835&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222c81f403ad9632ce3e28ac66a50660f0%22%7D&amp;xxc=taobaoSearch" xr:uid="{32B051CA-C6F0-4CE2-9CB7-F19AEB48986F}"/>
     <hyperlink ref="B5" r:id="rId3" display="https://item.taobao.com/item.htm?id=563449602023&amp;pisk=fU0EOcfU0eLEb0pCcJzy7Pmw-JaLkrpjK4w7ZbcuOJ23d4MrZ7Nztaj3ZFjggR6QduM7aclxUJOJvyiaUADaKYlJ972oEYySAhTj9XU8rK9ylEGpgA421vPl-lAuNWXuzTF1TXU8rL51rnTq9vMRxhPzrCzgZ7W3r7VuICP7t84uKuXis72gEEfbSCsC8oTtgRmdZZ4bR3ZLQabcBWr3vEe1r13_T0TmORosfVPUY-qr5sJE-AGoR2E9-wz-1mkrqxv1AJm4gArjYK7E3vFoa7Deksyi8buavc6hxSzULo0nIsQtgumZ7ygHeihs_Jq45ct9duaELmeYxhptUfyIE2rGLgSde5qNm4nFEgr365yX_CSbHqNIts9COgI8joVahBEl2gE365yX_CSR2kQ0_-OLq&amp;scene=taobao_shop&amp;spm=a312a.7700824.w5003-24749806087.6.6b143e65p39SYI" xr:uid="{49AF750A-323A-46C2-A86D-8F7452F41384}"/>
     <hyperlink ref="B9" r:id="rId4" display="https://item.taobao.com/item.htm?id=39817054807&amp;pisk=gf7tv4ik6J2gARzQeVq3n8Ez-aNnHkfN9O5SoKvic9BdI_sMjs9DktBAHdxbQFbApOf5jhffoI_v7wjiod2wks6kk82urzfN_K8bE8brXeMWPCpjcxvsdvTDMemWtD1N_E8jtxZlA1zAhCa0lE6XRpODMEM6lVNpAQAXlVtj5DMBLITXld96OHOvGxOX1hNpdCA61ATX1BGBgQ8Xhtt_969eME9fhENdOjQ8ipi2hqIiEJEzlAtIlq_p6HUl1pi6UwO9qLC6mWFK0CK9F19LBVfUVH12DZlqk3114tR5CAwv3wCC5g67Kcv12IClD1asRFbN1gtfP-ofeFBvVNtKGSCMkKLpOaNm4pbpIt_9A70Jme_kVFs3YRxDWQBf7OhxlT1hZN-Fk8HB3GAyRIQ4NmpvcguhrahqyYvJicNL9mo2fBRsixkoium5SBpu6omq0HqW9LVL9mo2fBRpEWb-0m-3V&amp;spm=pc_detail.30350276.guessitem.d3" xr:uid="{34264166-94D2-4A25-B15C-B8D5F1F8528D}"/>
-    <hyperlink ref="B28" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=835617643556&amp;mi_id=0000FPkI2JuDNXJG6MpO3EVqrr26t96ggH2-WWPkTQ_Qo7o&amp;ns=1&amp;priceTId=2100c82f17681139315412365e09c2&amp;skuId=5761251743604&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22e0905dcf6335b98a148d3a4afb2b49b5%22%7D&amp;xxc=taobaoSearch" xr:uid="{DED0EE31-36EE-4EA1-8BF4-1768E6FC480D}"/>
+    <hyperlink ref="B31" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=10&amp;id=835617643556&amp;mi_id=0000FPkI2JuDNXJG6MpO3EVqrr26t96ggH2-WWPkTQ_Qo7o&amp;ns=1&amp;priceTId=2100c82f17681139315412365e09c2&amp;skuId=5761251743604&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22e0905dcf6335b98a148d3a4afb2b49b5%22%7D&amp;xxc=taobaoSearch" xr:uid="{DED0EE31-36EE-4EA1-8BF4-1768E6FC480D}"/>
     <hyperlink ref="B12" r:id="rId6" display="https://item.taobao.com/item.htm?id=39937866540&amp;pisk=gFRSxZ4aFuq5m6g-vuu4cneeVmCIVqlZOy_pSeFzJ_C-OwKwc9FEE_WCOnI2ag8PwX_pbn6pYM8zrKxwW7RrE6PCZ6fKbclZ_ETlt6CxkNWUq-Q1yX7d2aClMu3a3rhZ_UYuza3wkfJPAjpdlMCdegCAMibgeaKdpSLAmwbL2wF-lEIcD7Edy8CxMNQgyzKd2jhAJNqLpwQRkEIcJ6QLwHLxlwSAv6CpvEhS9l7I8gTS734jxAo7nUjb9Wdfl4j9PvVFlIb5JGTRpaQvGlX5XUIb90sVZVICmCnqhExpe37DAfif6dxXOOCINlbWHF1A41H_h_T2qC1J10NPu9sWHQBbJWCAgM6vd3i7EgpycObAHyGGuhSvrQpj-oLJbg1Rktlt5EBp3QXMamF56dYPapKt08SJCwIPa5Sshn2QlOVClGujlJ2hhuxhxxe5mCWRoa1jlqZ5MTQclGujlJ2heZb4hqgbVsC..&amp;spm=pc_detail.30350276.guessitem.d2&amp;skuId=5998204317411" xr:uid="{901F16F3-3CD2-40B4-966C-36C00B94F43F}"/>
     <hyperlink ref="B14" r:id="rId7" display="https://item.taobao.com/item.htm?id=39936877790&amp;pisk=fQWZF5iwaRew45zsNFJ4LpmFEPJ9FLU7itTXmijDfFYM5t_Vmnt2jxcMmJcH4eg65I_X06SRuFZY6d1euwbeSON9lxuV-ii6sCYDxHxJchxmnFfE0gQFuIE9lEYVlif_A8w5XGpvnrz7F8_dLEnfuhADnBqD0hmMC_0qAGpvnroIn7wPXN_xmXt2nkJHmnuMnEvmtk-XqAvDSI0hxnYHoEPhYPNb6B2d4eftmjVqD7qXJxDcQ5dwz_cj3x72jCRxdFkcA9-w_UjGErFWgHXCLQOIcl9h26_MYLyZyh5h4dxVHuc2uIW9Le7zExKdsNWHg9ZY6MW27QXMT-r54K-coI5LzYtwC6RPQ1Ex-GbW7_vOc0z1YQ5ewHAn0fjr2qKHTbXA_qc2sHKePkrENUBWfGm75cGxMBAkYUZ9ijhvsHKePkrEMjdtEH87XIf..&amp;spm=a312a.7700824.w4002-14463293387.49.33b36ad6im2111&amp;skuId=4671930005950" xr:uid="{FA18D68E-56DB-4375-B1B0-355BB84AB1AC}"/>
     <hyperlink ref="B13" r:id="rId8" display="https://item.taobao.com/item.htm?id=604696404984&amp;pisk=feLqFxVVYq344OMbAt7ZzaqUm0QARwHIjF61sCAGGtXchF9ws11NiPqcs4qlTTwfhG91_3RpQtGtDZtPQLvPnEiACPywECNfmif0E4fOT-4cj1xz_BpyQGhACOXwCCxjN2gBMIQOSAkIR2TloUOyQsbgS_cGO1Cme-6UXIQOSAP7SDgeMK9Ti_1NSb7ls11GSObGrb51TObGnG2kZ1XlIE3FjRnsnggJTTxYskQMXRTGUP43esSDK2BuSW8lgOvDicUgSU5V0USAm0mVchAdvE9E7zQXT3bl_Fh3bOSejE_koY0h2GYkE_vj1lCybCYdkwPioQ7V3MfVcS4MKQRMAg8St2QVotx1kCNEhQ82hILy15qluZtPYE7h4geOZgrHWnygbifRa9Grak6pRsO0OxNbXlIlx_WIMGqTXifRa9GralEODyfPdjIG.&amp;spm=a312a.7700824.w4002-14463293387.54.1af86ad6fOMMhe&amp;skuId=4237019028446" xr:uid="{EFF5FC2F-9849-4670-BA15-7E7CED08D1FB}"/>
@@ -1365,8 +1436,9 @@
     <hyperlink ref="B15" r:id="rId20" display="https://item.taobao.com/item.htm?id=521916401447&amp;pisk=f0sEFCMeukEEN8PIlB-zbhqN_5KpcnFbrgOWETXkdBAHOg1PEL9yK00HEl0M3CGBOU1WUNWAaBw8JH_wa1fwtMapN0lPsTMB-eAkIdvvFpvoqBbZUtCNaUepNQAPNTbQCoZfp9KJq7Pbco60TXIlapxkZd2kUKlHAZcrC9KJq7ksqrZVp618xbpyqR-MELkHqQxkIRJWnQxktUcGILAMZEeGZlcAg8OFL-1Knm6SK5Be_0mm6p8hCodtqys9LCWhKznoqGJe8G8p-P4eRaXvkM144cKC3NxMUgemzQ8VrMtGx5qDWUjGsdfQF4pNzTjvvnkuxO-eTEveRvmliOWllFS_noKexBbWvTM4OOSFO9INFY0MYH_wuM-c4DhJIFuc2wlozev9QIwaQqOAcp6nhWMIy4LModRbpU0-yev9QIwaQ43JJmvwGJLl.&amp;spm=a312a.7700824.w4002-14463293387.56.4e366ad6vq53jO&amp;skuId=4362216961749" xr:uid="{4653E60B-AE54-4745-A1DF-E10C07652D86}"/>
     <hyperlink ref="B11" r:id="rId21" display="https://item.taobao.com/item.htm?id=39805191368&amp;pisk=gOOmxIi4MKWXfLZrtl5j3mw30wDJrs11bhFOX1IZUgSWk53XkLbwX3gslsLNjhxRVEFtlEpuSetkjOgfXGSMXFJxyXhplE11_cmK9XFUQqiymS7N_V7PSNgRu3QU3X51_DnLe5Wjt1tDMrW0uUulWN_VuhPV4TS5W-SwbiWz4wbC_G-wb_7PSZja0Sy4z8S55rrN_Z5raNQ_Ql-N_4fP8gSN_t-wz4b14Gl7SRsHcHdrXV39NqTrKQ_cnM8VmhK9afX4hEjuH-OlOVIHuPNa_QbcnQXfF3xVHd8CdILEs71v-L5PSCgUIGXHQICyg0lFFORy4a-xWR_kIFRCG64ZgUfcm97cHrPwYUYwpTA-8X1cgiJOGFUnDUADDEOkWPyPisplKIfEOoS9eeAGSCisZHYwRdWksojrU8yFu7V1zVdzCR6VPajKu3ugpZYYSdgorJGP3a_jZ40uCR6VPajKr42UUt75lbf..&amp;spm=pc_detail.30350276.guessitem.d5&amp;skuId=4235875189471" xr:uid="{B62BF88B-7C7A-4677-BB66-A5D767F55759}"/>
     <hyperlink ref="B7" r:id="rId22" display="https://item.taobao.com/item.htm?id=575304860470&amp;pisk=gwoZYK6azhKZjMRoUYq2Yk0ytXETMoRWgmNbnxD0C5Vi5Ssq0WkkB5TvWjuEiXU_sVNf0mPEsias0xI4nxcvBS99RAHTDoAWNn-SBABxvS-nbij3KveAjNYQSd7lFdRWN3tWS9q2_QM66GmK--F3IG4gSp73B-Z0nRqDLW24eZfiioveL-wfmG40ow2338ZcSG2gtv28IZV0iGDHL-F3n-c0mpr39-q0ijqmgvltM_wuSpQvwonHOKr3ZAVFmgfLQPcp2WIcMD2ZoMM_TyaIYRzaZroCh2niOxmsXyLNSoHIzjumZB__s4yrTzgwaGlr6-D4nf-RUWmZ3DztR1bgUlParccheMHzo2oUfcAAyvMUszrIRed_lllZy7UMJBhqL5GmbyfwOSgSdc4EZBsEMrumfkmMt3Sy8se38amx7sb4SJeUNpJFP7n7Cycx3ubAky4uL79ToZQYSJeUNpJFkZUOqJPWBrf..&amp;spm=pc_detail.30350276.guessitem.d3&amp;skuId=3944419346377" xr:uid="{2CD360CD-E9FE-4624-9D34-CA99E0B840B7}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{AE9BF1D1-DA05-41AB-B6A7-2248F8CAEB7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId23"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId24"/>
 </worksheet>
 </file>